--- a/data/장애인거주시설 통계자료(2022년 7월기준).xlsx
+++ b/data/장애인거주시설 통계자료(2022년 7월기준).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\위드유_현정\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\위드유_현정\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="460">
   <si>
     <t>시군구</t>
   </si>
@@ -624,30 +624,6 @@
     <t>1988.12.10.</t>
   </si>
   <si>
-    <t>사회복지법인 한서사회복지재단</t>
-  </si>
-  <si>
-    <t>이상수</t>
-  </si>
-  <si>
-    <t>아하브마을</t>
-  </si>
-  <si>
-    <t>최경하</t>
-  </si>
-  <si>
-    <t>울산광역시 울주군 상북면 명촌길천로 58</t>
-  </si>
-  <si>
-    <t>052-264-0138</t>
-  </si>
-  <si>
-    <t>052-264-0137</t>
-  </si>
-  <si>
-    <t>1991.01.08</t>
-  </si>
-  <si>
     <t>사회복지법인동래원</t>
   </si>
   <si>
@@ -957,48 +933,6 @@
     <t>중증</t>
   </si>
   <si>
-    <t>은송의집</t>
-  </si>
-  <si>
-    <t>김인혜</t>
-  </si>
-  <si>
-    <t>경남 김해시 상동면 장척로 611-21</t>
-  </si>
-  <si>
-    <t>055-724-2341</t>
-  </si>
-  <si>
-    <t>055-724-2340</t>
-  </si>
-  <si>
-    <t>2007.03.19.</t>
-  </si>
-  <si>
-    <t>동향원</t>
-  </si>
-  <si>
-    <t>김재민</t>
-  </si>
-  <si>
-    <t>동원재활원+H18:ZH18:AQ18</t>
-  </si>
-  <si>
-    <t>홍정혜</t>
-  </si>
-  <si>
-    <t>울산시 울주군 두동면 천전각석길 11</t>
-  </si>
-  <si>
-    <t>052-263-6465</t>
-  </si>
-  <si>
-    <t>052-254-9001</t>
-  </si>
-  <si>
-    <t>1986.10.27.</t>
-  </si>
-  <si>
     <t>사회복지법인 진애원</t>
   </si>
   <si>
@@ -1023,42 +957,6 @@
     <t>2010.05.17</t>
   </si>
   <si>
-    <t>인혜</t>
-  </si>
-  <si>
-    <t>이금주</t>
-  </si>
-  <si>
-    <t>인혜원</t>
-  </si>
-  <si>
-    <t>노승찬</t>
-  </si>
-  <si>
-    <t>부산 강서구 대저중앙로394번가길 29</t>
-  </si>
-  <si>
-    <t>051-971-9209</t>
-  </si>
-  <si>
-    <t>051-972-9209</t>
-  </si>
-  <si>
-    <t>동연요양원</t>
-  </si>
-  <si>
-    <t>천영애</t>
-  </si>
-  <si>
-    <t>052-263-6466</t>
-  </si>
-  <si>
-    <t>052-263-6637</t>
-  </si>
-  <si>
-    <t>1990.12.24.</t>
-  </si>
-  <si>
     <t>연제구</t>
   </si>
   <si>
@@ -1084,27 +982,6 @@
   </si>
   <si>
     <t>1965.02.25.</t>
-  </si>
-  <si>
-    <t>가온</t>
-  </si>
-  <si>
-    <t>임미경</t>
-  </si>
-  <si>
-    <t>가온들찬빛</t>
-  </si>
-  <si>
-    <t>경남 양산시 신명3길 125(평산동)</t>
-  </si>
-  <si>
-    <t>055-365-2818</t>
-  </si>
-  <si>
-    <t>055-365-2826</t>
-  </si>
-  <si>
-    <t>1987.09.01.</t>
   </si>
   <si>
     <t>市지적발달장애인복지협회</t>
@@ -2119,11 +1996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1000"/>
+  <dimension ref="A1:AF994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+      <selection pane="topRight" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2165,10 +2042,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -3088,7 +2965,7 @@
         <v>137</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="H17" s="39">
         <v>35.118730399999997</v>
@@ -3551,10 +3428,10 @@
         <v>197</v>
       </c>
       <c r="H25" s="42">
-        <v>35.561363999999998</v>
+        <v>35.205984099999903</v>
       </c>
       <c r="I25" s="42">
-        <v>129.08414980000001</v>
+        <v>129.11790120000001</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>198</v>
@@ -3609,10 +3486,10 @@
         <v>205</v>
       </c>
       <c r="H26" s="42">
-        <v>35.205984099999903</v>
+        <v>35.235171200000003</v>
       </c>
       <c r="I26" s="42">
-        <v>129.11790120000001</v>
+        <v>129.14986339999999</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>206</v>
@@ -3646,40 +3523,36 @@
     </row>
     <row r="27" spans="1:32" ht="19.5" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="42">
+        <v>35.048938</v>
+      </c>
+      <c r="I27" s="42">
+        <v>128.9685834</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H27" s="42">
-        <v>35.235171200000003</v>
-      </c>
-      <c r="I27" s="42">
-        <v>129.14986339999999</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -3704,7 +3577,7 @@
     </row>
     <row r="28" spans="1:32" ht="19.5" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>38</v>
@@ -3712,28 +3585,28 @@
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="H28" s="42">
+        <v>35.104554999999998</v>
+      </c>
+      <c r="I28" s="42">
+        <v>128.98267430000001</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="K28" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="H28" s="42">
-        <v>35.048938</v>
-      </c>
-      <c r="I28" s="42">
-        <v>128.9685834</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -3757,37 +3630,37 @@
       <c r="AF28" s="8"/>
     </row>
     <row r="29" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" s="42">
+        <v>35.075963899999998</v>
+      </c>
+      <c r="I29" s="42">
+        <v>128.9789289</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="K29" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="L29" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="H29" s="42">
-        <v>35.104554999999998</v>
-      </c>
-      <c r="I29" s="42">
-        <v>128.98267430000001</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -3811,37 +3684,41 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="30" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="26" t="s">
+      <c r="C30" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="5" t="s">
         <v>231</v>
       </c>
       <c r="H30" s="42">
-        <v>35.075963899999998</v>
+        <v>35.074697800000003</v>
       </c>
       <c r="I30" s="42">
-        <v>128.9789289</v>
-      </c>
-      <c r="J30" s="13" t="s">
+        <v>128.97118839999999</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
@@ -3865,41 +3742,37 @@
       <c r="AF30" s="8"/>
     </row>
     <row r="31" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="G31" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="H31" s="42">
+        <v>35.076069500000003</v>
+      </c>
+      <c r="I31" s="42">
+        <v>128.98025480000001</v>
+      </c>
+      <c r="J31" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="K31" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="L31" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="H31" s="42">
-        <v>35.074697800000003</v>
-      </c>
-      <c r="I31" s="42">
-        <v>128.97118839999999</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -3923,37 +3796,37 @@
       <c r="AF31" s="8"/>
     </row>
     <row r="32" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A32" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="26" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="H32" s="42">
+        <v>35.074697800000003</v>
+      </c>
+      <c r="I32" s="42">
+        <v>128.97118839999999</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="K32" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H32" s="42">
-        <v>35.076069500000003</v>
-      </c>
-      <c r="I32" s="42">
-        <v>128.98025480000001</v>
-      </c>
-      <c r="J32" s="13" t="s">
+      <c r="L32" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
@@ -3978,152 +3851,156 @@
     </row>
     <row r="33" spans="1:32" ht="19.5" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>248</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="42">
+        <v>35.107354399999998</v>
+      </c>
+      <c r="I33" s="42">
+        <v>128.96529659999999</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H33" s="42">
-        <v>35.074697800000003</v>
-      </c>
-      <c r="I33" s="42">
-        <v>128.97118839999999</v>
-      </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="L33" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
+        <v>245</v>
+      </c>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
     </row>
     <row r="34" spans="1:32" ht="19.5" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H34" s="42">
+        <v>35.107513599999997</v>
+      </c>
+      <c r="I34" s="42">
+        <v>128.96083519999999</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="K34" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H34" s="42">
-        <v>35.107354399999998</v>
-      </c>
-      <c r="I34" s="42">
-        <v>128.96529659999999</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
     </row>
     <row r="35" spans="1:32" ht="19.5" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>261</v>
       </c>
       <c r="H35" s="42">
-        <v>35.107513599999997</v>
+        <v>35.228652500000003</v>
       </c>
       <c r="I35" s="42">
-        <v>128.96083519999999</v>
+        <v>129.07655489999999</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>262</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -4148,7 +4025,7 @@
     </row>
     <row r="36" spans="1:32" ht="19.5" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>11</v>
@@ -4169,10 +4046,10 @@
         <v>269</v>
       </c>
       <c r="H36" s="42">
-        <v>35.228652500000003</v>
+        <v>35.2776432</v>
       </c>
       <c r="I36" s="42">
-        <v>129.07655489999999</v>
+        <v>129.08881790000001</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>270</v>
@@ -4183,149 +4060,149 @@
       <c r="L36" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
     </row>
     <row r="37" spans="1:32" ht="19.5" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="H37" s="42">
+        <v>35.223125000000003</v>
+      </c>
+      <c r="I37" s="42">
+        <v>129.0940813</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H37" s="42">
-        <v>35.2776432</v>
-      </c>
-      <c r="I37" s="42">
-        <v>129.08881790000001</v>
-      </c>
-      <c r="J37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
     </row>
     <row r="38" spans="1:32" ht="19.5" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>281</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="42">
+        <v>35.224980299999999</v>
+      </c>
+      <c r="I38" s="42">
+        <v>129.09484660000001</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H38" s="42">
-        <v>35.223125000000003</v>
-      </c>
-      <c r="I38" s="42">
-        <v>129.0940813</v>
-      </c>
-      <c r="J38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
     </row>
     <row r="39" spans="1:32" ht="19.5" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>287</v>
@@ -4337,25 +4214,25 @@
         <v>289</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H39" s="42">
-        <v>35.224980299999999</v>
+        <v>35.219123500000002</v>
       </c>
       <c r="I39" s="42">
-        <v>129.09484660000001</v>
+        <v>128.96874690000001</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -4380,40 +4257,40 @@
     </row>
     <row r="40" spans="1:32" ht="19.5" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H40" s="42">
-        <v>35.219123500000002</v>
+        <v>35.065573000000001</v>
       </c>
       <c r="I40" s="42">
-        <v>128.96874690000001</v>
+        <v>128.83360339999999</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -4438,40 +4315,40 @@
     </row>
     <row r="41" spans="1:32" ht="19.5" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H41" s="42">
-        <v>35.295671200000001</v>
+        <v>35.181338799999999</v>
       </c>
       <c r="I41" s="42">
-        <v>128.92725580000001</v>
+        <v>129.10225249999999</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -4496,214 +4373,210 @@
     </row>
     <row r="42" spans="1:32" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="D42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H42" s="42">
-        <v>35.618003100000003</v>
-      </c>
-      <c r="I42" s="42">
-        <v>129.16933839999999</v>
-      </c>
-      <c r="J42" s="4" t="s">
+      <c r="F42" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="G42" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="H42" s="43">
+        <v>35.192873300000002</v>
+      </c>
+      <c r="I42" s="43">
+        <v>129.0876762</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
+      <c r="K42" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
     </row>
     <row r="43" spans="1:32" ht="19.5" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H43" s="42">
-        <v>35.065573000000001</v>
+        <v>35.159320399999999</v>
       </c>
       <c r="I43" s="42">
-        <v>128.83360339999999</v>
+        <v>129.11979009999999</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
+        <v>328</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
     </row>
     <row r="44" spans="1:32" ht="19.5" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>328</v>
+        <v>38</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="30" t="s">
+        <v>329</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H44" s="42">
-        <v>35.2174324</v>
+        <v>35.1727816</v>
       </c>
       <c r="I44" s="42">
-        <v>128.984455</v>
+        <v>129.11500290000001</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="L44" s="9">
-        <v>42790</v>
-      </c>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
+        <v>333</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
     </row>
     <row r="45" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="H45" s="42">
-        <v>35.618003100000003</v>
-      </c>
-      <c r="I45" s="42">
-        <v>129.16933839999999</v>
-      </c>
-      <c r="J45" s="4" t="s">
+      <c r="A45" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="F45" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="G45" s="7" t="s">
         <v>337</v>
+      </c>
+      <c r="H45" s="43">
+        <v>35.159944299999999</v>
+      </c>
+      <c r="I45" s="43">
+        <v>129.11704040000001</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -4728,16 +4601,16 @@
     </row>
     <row r="46" spans="1:32" ht="19.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>339</v>
+        <v>38</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>341</v>
@@ -4749,19 +4622,19 @@
         <v>343</v>
       </c>
       <c r="H46" s="42">
-        <v>35.181338799999999</v>
+        <v>35.152480599999997</v>
       </c>
       <c r="I46" s="42">
-        <v>129.10225249999999</v>
+        <v>129.1149135</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>344</v>
       </c>
       <c r="K46" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
@@ -4786,7 +4659,7 @@
     </row>
     <row r="47" spans="1:32" ht="19.5" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>11</v>
@@ -4801,117 +4674,117 @@
         <v>349</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H47" s="42">
-        <v>35.389174699999998</v>
+        <v>35.134066900000001</v>
       </c>
       <c r="I47" s="42">
-        <v>129.1395215</v>
+        <v>128.9761982</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
+        <v>354</v>
+      </c>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
     </row>
     <row r="48" spans="1:32" ht="19.5" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="D48" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="H48" s="43">
-        <v>35.192873300000002</v>
-      </c>
-      <c r="I48" s="43">
-        <v>129.0876762</v>
-      </c>
-      <c r="J48" s="6" t="s">
+      <c r="F48" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="H48" s="42">
+        <v>35.185291499999998</v>
+      </c>
+      <c r="I48" s="42">
+        <v>128.99247930000001</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="11"/>
-      <c r="AD48" s="11"/>
-      <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
+      <c r="K48" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
     </row>
     <row r="49" spans="1:32" ht="19.5" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>363</v>
+        <v>127</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>364</v>
@@ -4923,131 +4796,129 @@
         <v>366</v>
       </c>
       <c r="H49" s="42">
-        <v>35.159320399999999</v>
+        <v>35.1517233</v>
       </c>
       <c r="I49" s="42">
-        <v>129.11979009999999</v>
+        <v>129.00873189999999</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>367</v>
       </c>
       <c r="K49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
     </row>
     <row r="50" spans="1:32" ht="19.5" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="30" t="s">
+      <c r="C50" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>370</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="42">
+        <v>35.1714427</v>
+      </c>
+      <c r="I50" s="42">
+        <v>128.98576130000001</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H50" s="42">
-        <v>35.1727816</v>
-      </c>
-      <c r="I50" s="42">
-        <v>129.11500290000001</v>
-      </c>
-      <c r="J50" s="4" t="s">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+    </row>
+    <row r="51" spans="1:32" ht="19.5" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
-      <c r="AF50" s="11"/>
-    </row>
-    <row r="51" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="G51" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="H51" s="42">
+        <v>35.152639899999997</v>
+      </c>
+      <c r="I51" s="42">
+        <v>128.9908173</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="K51" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H51" s="43">
-        <v>35.159944299999999</v>
-      </c>
-      <c r="I51" s="43">
-        <v>129.11704040000001</v>
-      </c>
-      <c r="J51" s="6" t="s">
+      <c r="L51" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
@@ -5072,40 +4943,36 @@
     </row>
     <row r="52" spans="1:32" ht="19.5" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H52" s="42">
+        <v>35.146183399999998</v>
+      </c>
+      <c r="I52" s="42">
+        <v>129.01342500000001</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="L52" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="H52" s="42">
-        <v>35.152480599999997</v>
-      </c>
-      <c r="I52" s="42">
-        <v>129.1149135</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
@@ -5130,40 +4997,36 @@
     </row>
     <row r="53" spans="1:32" ht="19.5" customHeight="1">
       <c r="A53" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="H53" s="42">
+        <v>35.149403</v>
+      </c>
+      <c r="I53" s="42">
+        <v>129.01201839999999</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="K53" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="L53" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="H53" s="42">
-        <v>35.134066900000001</v>
-      </c>
-      <c r="I53" s="42">
-        <v>128.9761982</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="M53" s="28"/>
       <c r="N53" s="28"/>
@@ -5188,40 +5051,36 @@
     </row>
     <row r="54" spans="1:32" ht="19.5" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>397</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H54" s="42">
-        <v>35.185291499999998</v>
+        <v>35.178709699999999</v>
       </c>
       <c r="I54" s="42">
-        <v>128.99247930000001</v>
+        <v>129.0060095</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
@@ -5246,204 +5105,210 @@
     </row>
     <row r="55" spans="1:32" ht="19.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H55" s="42">
-        <v>35.1517233</v>
+        <v>35.178709699999999</v>
       </c>
       <c r="I55" s="42">
-        <v>129.00873189999999</v>
+        <v>129.0060095</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
+        <v>399</v>
+      </c>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
     </row>
     <row r="56" spans="1:32" ht="19.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H56" s="42">
-        <v>35.1714427</v>
+        <v>35.336125000000003</v>
       </c>
       <c r="I56" s="42">
-        <v>128.98576130000001</v>
+        <v>129.17352980000001</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="K56" s="4"/>
+        <v>405</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>406</v>
+      </c>
       <c r="L56" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8"/>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="8"/>
+        <v>407</v>
+      </c>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
     </row>
     <row r="57" spans="1:32" ht="19.5" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>409</v>
+      </c>
       <c r="E57" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H57" s="42">
+        <v>35.3748583</v>
+      </c>
+      <c r="I57" s="42">
+        <v>129.26355229999999</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="L57" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="H57" s="42">
-        <v>35.152639899999997</v>
-      </c>
-      <c r="I57" s="42">
-        <v>128.9908173</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="8"/>
-      <c r="AD57" s="8"/>
-      <c r="AE57" s="8"/>
-      <c r="AF57" s="8"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
     </row>
     <row r="58" spans="1:32" ht="19.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="E58" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H58" s="42">
+        <v>35.303535400000001</v>
+      </c>
+      <c r="I58" s="42">
+        <v>129.2504011</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="L58" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="H58" s="42">
-        <v>35.146183399999998</v>
-      </c>
-      <c r="I58" s="42">
-        <v>129.01342500000001</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
@@ -5467,91 +5332,95 @@
       <c r="AF58" s="8"/>
     </row>
     <row r="59" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H59" s="43">
+        <v>35.379511399999998</v>
+      </c>
+      <c r="I59" s="43">
+        <v>129.26022750000001</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+    </row>
+    <row r="60" spans="1:32" ht="19.5" customHeight="1">
+      <c r="A60" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="B60" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="H59" s="42">
-        <v>35.149403</v>
-      </c>
-      <c r="I59" s="42">
-        <v>129.01201839999999</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
-    </row>
-    <row r="60" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="C60" s="32"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="F60" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="H60" s="42">
-        <v>35.178709699999999</v>
-      </c>
-      <c r="I60" s="42">
-        <v>129.0060095</v>
-      </c>
-      <c r="J60" s="4" t="s">
+      <c r="G60" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="H60" s="43">
+        <v>35.241260400000002</v>
+      </c>
+      <c r="I60" s="43">
+        <v>129.2078391</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="K60" s="6" t="s">
         <v>435</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
@@ -5576,36 +5445,40 @@
     </row>
     <row r="61" spans="1:32" ht="19.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
-        <v>436</v>
+      <c r="C61" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>439</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H61" s="42">
-        <v>35.178709699999999</v>
+        <v>35.312067399999997</v>
       </c>
       <c r="I61" s="42">
-        <v>129.0060095</v>
+        <v>129.1149624</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
@@ -5628,101 +5501,70 @@
       <c r="AE61" s="11"/>
       <c r="AF61" s="11"/>
     </row>
-    <row r="62" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A62" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="G62" s="5" t="s">
+    <row r="62" spans="1:32" ht="17.25" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="H62" s="42">
-        <v>35.336125000000003</v>
-      </c>
-      <c r="I62" s="42">
-        <v>129.17352980000001</v>
-      </c>
-      <c r="J62" s="4" t="s">
+      <c r="D62" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="E62" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="F62" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="11"/>
-      <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
+      <c r="G62" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="H62" s="46">
+        <v>35.2567089</v>
+      </c>
+      <c r="I62" s="46">
+        <v>129.21580080000001</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="K62" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="L62" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
     </row>
     <row r="63" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="H63" s="42">
-        <v>35.3748583</v>
-      </c>
-      <c r="I63" s="42">
-        <v>129.26355229999999</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>456</v>
-      </c>
+      <c r="D63" s="33"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
@@ -5745,351 +5587,186 @@
       <c r="AF63" s="11"/>
     </row>
     <row r="64" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="H64" s="42">
-        <v>35.303535400000001</v>
-      </c>
-      <c r="I64" s="42">
-        <v>129.2504011</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="8"/>
-      <c r="AD64" s="8"/>
-      <c r="AE64" s="8"/>
-      <c r="AF64" s="8"/>
-    </row>
-    <row r="65" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H65" s="43">
-        <v>35.379511399999998</v>
-      </c>
-      <c r="I65" s="43">
-        <v>129.26022750000001</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="8"/>
-      <c r="AB65" s="8"/>
-      <c r="AC65" s="8"/>
-      <c r="AD65" s="8"/>
-      <c r="AE65" s="8"/>
-      <c r="AF65" s="8"/>
-    </row>
-    <row r="66" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A66" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="H66" s="43">
-        <v>35.241260400000002</v>
-      </c>
-      <c r="I66" s="43">
-        <v>129.2078391</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="8"/>
-      <c r="AC66" s="8"/>
-      <c r="AD66" s="8"/>
-      <c r="AE66" s="8"/>
-      <c r="AF66" s="8"/>
-    </row>
-    <row r="67" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A67" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="H67" s="42">
-        <v>35.312067399999997</v>
-      </c>
-      <c r="I67" s="42">
-        <v>129.1149624</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="11"/>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="11"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
-    </row>
-    <row r="68" spans="1:32" ht="17.25" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="H68" s="46">
-        <v>35.2567089</v>
-      </c>
-      <c r="I68" s="46">
-        <v>129.21580080000001</v>
-      </c>
-      <c r="J68" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="K68" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="L68" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-    </row>
-    <row r="69" spans="1:32" ht="19.5" customHeight="1">
+      <c r="D64" s="33"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36"/>
+      <c r="AC64" s="36"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="36"/>
+    </row>
+    <row r="65" spans="4:32" ht="17.25" customHeight="1">
+      <c r="D65" s="33"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="37"/>
+      <c r="AA65" s="37"/>
+      <c r="AB65" s="37"/>
+      <c r="AC65" s="37"/>
+      <c r="AD65" s="37"/>
+      <c r="AE65" s="37"/>
+      <c r="AF65" s="37"/>
+    </row>
+    <row r="66" spans="4:32" ht="17.25" customHeight="1">
+      <c r="D66" s="33"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="37"/>
+      <c r="AA66" s="37"/>
+      <c r="AB66" s="37"/>
+      <c r="AC66" s="37"/>
+      <c r="AD66" s="37"/>
+      <c r="AE66" s="37"/>
+      <c r="AF66" s="37"/>
+    </row>
+    <row r="67" spans="4:32" ht="17.25" customHeight="1">
+      <c r="D67" s="33"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
+      <c r="AA67" s="37"/>
+      <c r="AB67" s="37"/>
+      <c r="AC67" s="37"/>
+      <c r="AD67" s="37"/>
+      <c r="AE67" s="37"/>
+      <c r="AF67" s="37"/>
+    </row>
+    <row r="68" spans="4:32" ht="17.25" customHeight="1">
+      <c r="D68" s="33"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37"/>
+      <c r="AA68" s="37"/>
+      <c r="AB68" s="37"/>
+      <c r="AC68" s="37"/>
+      <c r="AD68" s="37"/>
+      <c r="AE68" s="37"/>
+      <c r="AF68" s="37"/>
+    </row>
+    <row r="69" spans="4:32" ht="17.25" customHeight="1">
       <c r="D69" s="33"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11"/>
-      <c r="AA69" s="11"/>
-      <c r="AB69" s="11"/>
-      <c r="AC69" s="11"/>
-      <c r="AD69" s="11"/>
-      <c r="AE69" s="11"/>
-      <c r="AF69" s="11"/>
-    </row>
-    <row r="70" spans="1:32" ht="19.5" customHeight="1">
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="37"/>
+      <c r="AA69" s="37"/>
+      <c r="AB69" s="37"/>
+      <c r="AC69" s="37"/>
+      <c r="AD69" s="37"/>
+      <c r="AE69" s="37"/>
+      <c r="AF69" s="37"/>
+    </row>
+    <row r="70" spans="4:32" ht="17.25" customHeight="1">
       <c r="D70" s="33"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
-      <c r="Z70" s="36"/>
-      <c r="AA70" s="36"/>
-      <c r="AB70" s="36"/>
-      <c r="AC70" s="36"/>
-      <c r="AD70" s="36"/>
-      <c r="AE70" s="36"/>
-      <c r="AF70" s="36"/>
-    </row>
-    <row r="71" spans="1:32" ht="17.25" customHeight="1">
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37"/>
+      <c r="AA70" s="37"/>
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="37"/>
+      <c r="AD70" s="37"/>
+      <c r="AE70" s="37"/>
+      <c r="AF70" s="37"/>
+    </row>
+    <row r="71" spans="4:32" ht="17.25" customHeight="1">
       <c r="D71" s="33"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
       <c r="M71" s="37"/>
       <c r="N71" s="37"/>
       <c r="O71" s="37"/>
@@ -6111,12 +5788,8 @@
       <c r="AE71" s="37"/>
       <c r="AF71" s="37"/>
     </row>
-    <row r="72" spans="1:32" ht="17.25" customHeight="1">
+    <row r="72" spans="4:32" ht="17.25" customHeight="1">
       <c r="D72" s="33"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
       <c r="M72" s="37"/>
       <c r="N72" s="37"/>
       <c r="O72" s="37"/>
@@ -6138,11 +5811,8 @@
       <c r="AE72" s="37"/>
       <c r="AF72" s="37"/>
     </row>
-    <row r="73" spans="1:32" ht="17.25" customHeight="1">
+    <row r="73" spans="4:32" ht="17.25" customHeight="1">
       <c r="D73" s="33"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
       <c r="M73" s="37"/>
       <c r="N73" s="37"/>
       <c r="O73" s="37"/>
@@ -6164,11 +5834,8 @@
       <c r="AE73" s="37"/>
       <c r="AF73" s="37"/>
     </row>
-    <row r="74" spans="1:32" ht="17.25" customHeight="1">
+    <row r="74" spans="4:32" ht="17.25" customHeight="1">
       <c r="D74" s="33"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
       <c r="M74" s="37"/>
       <c r="N74" s="37"/>
       <c r="O74" s="37"/>
@@ -6190,7 +5857,7 @@
       <c r="AE74" s="37"/>
       <c r="AF74" s="37"/>
     </row>
-    <row r="75" spans="1:32" ht="17.25" customHeight="1">
+    <row r="75" spans="4:32" ht="17.25" customHeight="1">
       <c r="D75" s="33"/>
       <c r="M75" s="37"/>
       <c r="N75" s="37"/>
@@ -6213,7 +5880,7 @@
       <c r="AE75" s="37"/>
       <c r="AF75" s="37"/>
     </row>
-    <row r="76" spans="1:32" ht="17.25" customHeight="1">
+    <row r="76" spans="4:32" ht="17.25" customHeight="1">
       <c r="D76" s="33"/>
       <c r="M76" s="37"/>
       <c r="N76" s="37"/>
@@ -6236,7 +5903,7 @@
       <c r="AE76" s="37"/>
       <c r="AF76" s="37"/>
     </row>
-    <row r="77" spans="1:32" ht="17.25" customHeight="1">
+    <row r="77" spans="4:32" ht="17.25" customHeight="1">
       <c r="D77" s="33"/>
       <c r="M77" s="37"/>
       <c r="N77" s="37"/>
@@ -6259,7 +5926,7 @@
       <c r="AE77" s="37"/>
       <c r="AF77" s="37"/>
     </row>
-    <row r="78" spans="1:32" ht="17.25" customHeight="1">
+    <row r="78" spans="4:32" ht="17.25" customHeight="1">
       <c r="D78" s="33"/>
       <c r="M78" s="37"/>
       <c r="N78" s="37"/>
@@ -6282,7 +5949,7 @@
       <c r="AE78" s="37"/>
       <c r="AF78" s="37"/>
     </row>
-    <row r="79" spans="1:32" ht="17.25" customHeight="1">
+    <row r="79" spans="4:32" ht="17.25" customHeight="1">
       <c r="D79" s="33"/>
       <c r="M79" s="37"/>
       <c r="N79" s="37"/>
@@ -6305,7 +5972,7 @@
       <c r="AE79" s="37"/>
       <c r="AF79" s="37"/>
     </row>
-    <row r="80" spans="1:32" ht="17.25" customHeight="1">
+    <row r="80" spans="4:32" ht="17.25" customHeight="1">
       <c r="D80" s="33"/>
       <c r="M80" s="37"/>
       <c r="N80" s="37"/>
@@ -27350,148 +27017,10 @@
       <c r="AE994" s="37"/>
       <c r="AF994" s="37"/>
     </row>
-    <row r="995" spans="4:32" ht="17.25" customHeight="1">
-      <c r="D995" s="33"/>
-      <c r="M995" s="37"/>
-      <c r="N995" s="37"/>
-      <c r="O995" s="37"/>
-      <c r="P995" s="37"/>
-      <c r="Q995" s="37"/>
-      <c r="R995" s="37"/>
-      <c r="S995" s="37"/>
-      <c r="T995" s="37"/>
-      <c r="U995" s="37"/>
-      <c r="V995" s="37"/>
-      <c r="W995" s="37"/>
-      <c r="X995" s="37"/>
-      <c r="Y995" s="37"/>
-      <c r="Z995" s="37"/>
-      <c r="AA995" s="37"/>
-      <c r="AB995" s="37"/>
-      <c r="AC995" s="37"/>
-      <c r="AD995" s="37"/>
-      <c r="AE995" s="37"/>
-      <c r="AF995" s="37"/>
-    </row>
-    <row r="996" spans="4:32" ht="17.25" customHeight="1">
-      <c r="D996" s="33"/>
-      <c r="M996" s="37"/>
-      <c r="N996" s="37"/>
-      <c r="O996" s="37"/>
-      <c r="P996" s="37"/>
-      <c r="Q996" s="37"/>
-      <c r="R996" s="37"/>
-      <c r="S996" s="37"/>
-      <c r="T996" s="37"/>
-      <c r="U996" s="37"/>
-      <c r="V996" s="37"/>
-      <c r="W996" s="37"/>
-      <c r="X996" s="37"/>
-      <c r="Y996" s="37"/>
-      <c r="Z996" s="37"/>
-      <c r="AA996" s="37"/>
-      <c r="AB996" s="37"/>
-      <c r="AC996" s="37"/>
-      <c r="AD996" s="37"/>
-      <c r="AE996" s="37"/>
-      <c r="AF996" s="37"/>
-    </row>
-    <row r="997" spans="4:32" ht="17.25" customHeight="1">
-      <c r="D997" s="33"/>
-      <c r="M997" s="37"/>
-      <c r="N997" s="37"/>
-      <c r="O997" s="37"/>
-      <c r="P997" s="37"/>
-      <c r="Q997" s="37"/>
-      <c r="R997" s="37"/>
-      <c r="S997" s="37"/>
-      <c r="T997" s="37"/>
-      <c r="U997" s="37"/>
-      <c r="V997" s="37"/>
-      <c r="W997" s="37"/>
-      <c r="X997" s="37"/>
-      <c r="Y997" s="37"/>
-      <c r="Z997" s="37"/>
-      <c r="AA997" s="37"/>
-      <c r="AB997" s="37"/>
-      <c r="AC997" s="37"/>
-      <c r="AD997" s="37"/>
-      <c r="AE997" s="37"/>
-      <c r="AF997" s="37"/>
-    </row>
-    <row r="998" spans="4:32" ht="17.25" customHeight="1">
-      <c r="D998" s="33"/>
-      <c r="M998" s="37"/>
-      <c r="N998" s="37"/>
-      <c r="O998" s="37"/>
-      <c r="P998" s="37"/>
-      <c r="Q998" s="37"/>
-      <c r="R998" s="37"/>
-      <c r="S998" s="37"/>
-      <c r="T998" s="37"/>
-      <c r="U998" s="37"/>
-      <c r="V998" s="37"/>
-      <c r="W998" s="37"/>
-      <c r="X998" s="37"/>
-      <c r="Y998" s="37"/>
-      <c r="Z998" s="37"/>
-      <c r="AA998" s="37"/>
-      <c r="AB998" s="37"/>
-      <c r="AC998" s="37"/>
-      <c r="AD998" s="37"/>
-      <c r="AE998" s="37"/>
-      <c r="AF998" s="37"/>
-    </row>
-    <row r="999" spans="4:32" ht="17.25" customHeight="1">
-      <c r="D999" s="33"/>
-      <c r="M999" s="37"/>
-      <c r="N999" s="37"/>
-      <c r="O999" s="37"/>
-      <c r="P999" s="37"/>
-      <c r="Q999" s="37"/>
-      <c r="R999" s="37"/>
-      <c r="S999" s="37"/>
-      <c r="T999" s="37"/>
-      <c r="U999" s="37"/>
-      <c r="V999" s="37"/>
-      <c r="W999" s="37"/>
-      <c r="X999" s="37"/>
-      <c r="Y999" s="37"/>
-      <c r="Z999" s="37"/>
-      <c r="AA999" s="37"/>
-      <c r="AB999" s="37"/>
-      <c r="AC999" s="37"/>
-      <c r="AD999" s="37"/>
-      <c r="AE999" s="37"/>
-      <c r="AF999" s="37"/>
-    </row>
-    <row r="1000" spans="4:32" ht="17.25" customHeight="1">
-      <c r="D1000" s="33"/>
-      <c r="M1000" s="37"/>
-      <c r="N1000" s="37"/>
-      <c r="O1000" s="37"/>
-      <c r="P1000" s="37"/>
-      <c r="Q1000" s="37"/>
-      <c r="R1000" s="37"/>
-      <c r="S1000" s="37"/>
-      <c r="T1000" s="37"/>
-      <c r="U1000" s="37"/>
-      <c r="V1000" s="37"/>
-      <c r="W1000" s="37"/>
-      <c r="X1000" s="37"/>
-      <c r="Y1000" s="37"/>
-      <c r="Z1000" s="37"/>
-      <c r="AA1000" s="37"/>
-      <c r="AB1000" s="37"/>
-      <c r="AC1000" s="37"/>
-      <c r="AD1000" s="37"/>
-      <c r="AE1000" s="37"/>
-      <c r="AF1000" s="37"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G32" r:id="rId1"/>
+    <hyperlink ref="G31" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -27502,7 +27031,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3 B5:B65 B67:B68</xm:sqref>
+          <xm:sqref>B2:B3 B61:B62 B5:B59</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27533,12 +27062,12 @@
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" customHeight="1">
@@ -27548,7 +27077,7 @@
     </row>
     <row r="6" spans="1:1" ht="17.25" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" customHeight="1">
@@ -27569,12 +27098,12 @@
     <row r="10" spans="1:1" ht="17.25" customHeight="1"/>
     <row r="11" spans="1:1" ht="17.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" customHeight="1"/>
